--- a/03_Process/YA_9.1.xlsx
+++ b/03_Process/YA_9.1.xlsx
@@ -383,13 +383,13 @@
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>1624</v>
+        <v>1532</v>
       </c>
       <c r="D2" t="n">
         <v>1203</v>
       </c>
       <c r="E2" t="n">
-        <v>74.076354679803</v>
+        <v>78.5248041775457</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>2016</v>
       </c>
       <c r="C3" t="n">
-        <v>2565</v>
+        <v>1559</v>
       </c>
       <c r="D3" t="n">
         <v>1251</v>
       </c>
       <c r="E3" t="n">
-        <v>48.7719298245614</v>
+        <v>80.2437459910199</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>2779</v>
+        <v>844</v>
       </c>
       <c r="D4" t="n">
         <v>494</v>
       </c>
       <c r="E4" t="n">
-        <v>17.7761784814682</v>
+        <v>58.5308056872038</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>2061</v>
+        <v>1590</v>
       </c>
       <c r="D5" t="n">
         <v>884</v>
       </c>
       <c r="E5" t="n">
-        <v>42.8918000970403</v>
+        <v>55.5974842767296</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>2019</v>
       </c>
       <c r="C6" t="n">
-        <v>1901</v>
+        <v>884</v>
       </c>
       <c r="D6" t="n">
         <v>380</v>
       </c>
       <c r="E6" t="n">
-        <v>19.9894792214624</v>
+        <v>42.9864253393665</v>
       </c>
     </row>
     <row r="7">
@@ -468,13 +468,13 @@
         <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>2984</v>
+        <v>831</v>
       </c>
       <c r="D7" t="n">
         <v>336</v>
       </c>
       <c r="E7" t="n">
-        <v>11.260053619303</v>
+        <v>40.4332129963899</v>
       </c>
     </row>
     <row r="8">
@@ -485,13 +485,13 @@
         <v>2021</v>
       </c>
       <c r="C8" t="n">
-        <v>4073</v>
+        <v>760</v>
       </c>
       <c r="D8" t="n">
         <v>306</v>
       </c>
       <c r="E8" t="n">
-        <v>7.5128897618463</v>
+        <v>40.2631578947368</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>2022</v>
       </c>
       <c r="C9" t="n">
-        <v>3630</v>
+        <v>694</v>
       </c>
       <c r="D9" t="n">
         <v>284</v>
       </c>
       <c r="E9" t="n">
-        <v>7.8236914600551</v>
+        <v>40.9221902017291</v>
       </c>
     </row>
     <row r="10">
@@ -519,13 +519,13 @@
         <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>3442</v>
+        <v>617</v>
       </c>
       <c r="D10" t="n">
         <v>207</v>
       </c>
       <c r="E10" t="n">
-        <v>6.01394538059268</v>
+        <v>33.54943273906</v>
       </c>
     </row>
     <row r="11">
@@ -536,13 +536,13 @@
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>1656</v>
+        <v>330</v>
       </c>
       <c r="D11" t="n">
         <v>233</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0700483091787</v>
+        <v>70.6060606060606</v>
       </c>
     </row>
     <row r="12">
@@ -553,13 +553,13 @@
         <v>2016</v>
       </c>
       <c r="C12" t="n">
-        <v>1892</v>
+        <v>246</v>
       </c>
       <c r="D12" t="n">
         <v>183</v>
       </c>
       <c r="E12" t="n">
-        <v>9.6723044397463</v>
+        <v>74.390243902439</v>
       </c>
     </row>
     <row r="13">
@@ -570,13 +570,13 @@
         <v>2017</v>
       </c>
       <c r="C13" t="n">
-        <v>2074</v>
+        <v>176</v>
       </c>
       <c r="D13" t="n">
         <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>4.91803278688525</v>
+        <v>57.9545454545455</v>
       </c>
     </row>
     <row r="14">
@@ -587,13 +587,13 @@
         <v>2018</v>
       </c>
       <c r="C14" t="n">
-        <v>1832</v>
+        <v>208</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>5.02183406113537</v>
+        <v>44.2307692307692</v>
       </c>
     </row>
     <row r="15">
@@ -604,13 +604,13 @@
         <v>2019</v>
       </c>
       <c r="C15" t="n">
-        <v>1985</v>
+        <v>169</v>
       </c>
       <c r="D15" t="n">
         <v>84</v>
       </c>
       <c r="E15" t="n">
-        <v>4.23173803526448</v>
+        <v>49.7041420118343</v>
       </c>
     </row>
     <row r="16">
@@ -621,13 +621,13 @@
         <v>2020</v>
       </c>
       <c r="C16" t="n">
-        <v>1929</v>
+        <v>187</v>
       </c>
       <c r="D16" t="n">
         <v>84</v>
       </c>
       <c r="E16" t="n">
-        <v>4.35458786936236</v>
+        <v>44.9197860962567</v>
       </c>
     </row>
     <row r="17">
@@ -638,13 +638,13 @@
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>2410</v>
+        <v>174</v>
       </c>
       <c r="D17" t="n">
         <v>83</v>
       </c>
       <c r="E17" t="n">
-        <v>3.44398340248963</v>
+        <v>47.7011494252874</v>
       </c>
     </row>
     <row r="18">
@@ -655,13 +655,13 @@
         <v>2022</v>
       </c>
       <c r="C18" t="n">
-        <v>2642</v>
+        <v>199</v>
       </c>
       <c r="D18" t="n">
         <v>102</v>
       </c>
       <c r="E18" t="n">
-        <v>3.86071158213475</v>
+        <v>51.2562814070352</v>
       </c>
     </row>
     <row r="19">
@@ -672,13 +672,13 @@
         <v>2023</v>
       </c>
       <c r="C19" t="n">
-        <v>2413</v>
+        <v>173</v>
       </c>
       <c r="D19" t="n">
         <v>77</v>
       </c>
       <c r="E19" t="n">
-        <v>3.19104848736013</v>
+        <v>44.5086705202312</v>
       </c>
     </row>
     <row r="20">
@@ -689,13 +689,13 @@
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>6960</v>
+        <v>3219</v>
       </c>
       <c r="D20" t="n">
         <v>1578</v>
       </c>
       <c r="E20" t="n">
-        <v>22.6724137931034</v>
+        <v>49.0214352283318</v>
       </c>
     </row>
     <row r="21">
@@ -706,13 +706,13 @@
         <v>2016</v>
       </c>
       <c r="C21" t="n">
-        <v>9086</v>
+        <v>1926</v>
       </c>
       <c r="D21" t="n">
         <v>1173</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9099713845477</v>
+        <v>60.9034267912773</v>
       </c>
     </row>
     <row r="22">
@@ -723,13 +723,13 @@
         <v>2017</v>
       </c>
       <c r="C22" t="n">
-        <v>8594</v>
+        <v>1872</v>
       </c>
       <c r="D22" t="n">
         <v>822</v>
       </c>
       <c r="E22" t="n">
-        <v>9.56481265999535</v>
+        <v>43.9102564102564</v>
       </c>
     </row>
     <row r="23">
@@ -740,13 +740,13 @@
         <v>2018</v>
       </c>
       <c r="C23" t="n">
-        <v>10355</v>
+        <v>1612</v>
       </c>
       <c r="D23" t="n">
         <v>791</v>
       </c>
       <c r="E23" t="n">
-        <v>7.63882182520522</v>
+        <v>49.0694789081886</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>2019</v>
       </c>
       <c r="C24" t="n">
-        <v>9718</v>
+        <v>1460</v>
       </c>
       <c r="D24" t="n">
         <v>842</v>
       </c>
       <c r="E24" t="n">
-        <v>8.66433422514921</v>
+        <v>57.6712328767123</v>
       </c>
     </row>
     <row r="25">
@@ -774,13 +774,13 @@
         <v>2020</v>
       </c>
       <c r="C25" t="n">
-        <v>8063</v>
+        <v>1071</v>
       </c>
       <c r="D25" t="n">
         <v>585</v>
       </c>
       <c r="E25" t="n">
-        <v>7.25536400843359</v>
+        <v>54.6218487394958</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>11874</v>
+        <v>812</v>
       </c>
       <c r="D26" t="n">
         <v>444</v>
       </c>
       <c r="E26" t="n">
-        <v>3.73926225366347</v>
+        <v>54.679802955665</v>
       </c>
     </row>
     <row r="27">
@@ -808,13 +808,13 @@
         <v>2022</v>
       </c>
       <c r="C27" t="n">
-        <v>14029</v>
+        <v>925</v>
       </c>
       <c r="D27" t="n">
         <v>567</v>
       </c>
       <c r="E27" t="n">
-        <v>4.04162805616936</v>
+        <v>61.2972972972973</v>
       </c>
     </row>
     <row r="28">
@@ -825,13 +825,13 @@
         <v>2023</v>
       </c>
       <c r="C28" t="n">
-        <v>12475</v>
+        <v>823</v>
       </c>
       <c r="D28" t="n">
         <v>390</v>
       </c>
       <c r="E28" t="n">
-        <v>3.12625250501002</v>
+        <v>47.3876063183475</v>
       </c>
     </row>
     <row r="29">
@@ -842,13 +842,13 @@
         <v>2015</v>
       </c>
       <c r="C29" t="n">
-        <v>938</v>
+        <v>387</v>
       </c>
       <c r="D29" t="n">
         <v>136</v>
       </c>
       <c r="E29" t="n">
-        <v>14.498933901919</v>
+        <v>35.1421188630491</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>2016</v>
       </c>
       <c r="C30" t="n">
-        <v>1622</v>
+        <v>284</v>
       </c>
       <c r="D30" t="n">
         <v>113</v>
       </c>
       <c r="E30" t="n">
-        <v>6.96670776818742</v>
+        <v>39.7887323943662</v>
       </c>
     </row>
     <row r="31">
@@ -876,13 +876,13 @@
         <v>2017</v>
       </c>
       <c r="C31" t="n">
-        <v>1340</v>
+        <v>321</v>
       </c>
       <c r="D31" t="n">
         <v>105</v>
       </c>
       <c r="E31" t="n">
-        <v>7.83582089552239</v>
+        <v>32.7102803738318</v>
       </c>
     </row>
     <row r="32">
@@ -893,13 +893,13 @@
         <v>2018</v>
       </c>
       <c r="C32" t="n">
-        <v>1618</v>
+        <v>320</v>
       </c>
       <c r="D32" t="n">
         <v>95</v>
       </c>
       <c r="E32" t="n">
-        <v>5.87144622991347</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="33">
@@ -910,13 +910,13 @@
         <v>2019</v>
       </c>
       <c r="C33" t="n">
-        <v>1168</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
         <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>5.99315068493151</v>
+        <v>26.8199233716475</v>
       </c>
     </row>
     <row r="34">
@@ -927,13 +927,13 @@
         <v>2020</v>
       </c>
       <c r="C34" t="n">
-        <v>1384</v>
+        <v>314</v>
       </c>
       <c r="D34" t="n">
         <v>88</v>
       </c>
       <c r="E34" t="n">
-        <v>6.35838150289017</v>
+        <v>28.0254777070064</v>
       </c>
     </row>
     <row r="35">
@@ -944,13 +944,13 @@
         <v>2021</v>
       </c>
       <c r="C35" t="n">
-        <v>1746</v>
+        <v>207</v>
       </c>
       <c r="D35" t="n">
         <v>116</v>
       </c>
       <c r="E35" t="n">
-        <v>6.64375715922108</v>
+        <v>56.0386473429952</v>
       </c>
     </row>
     <row r="36">
@@ -961,13 +961,13 @@
         <v>2022</v>
       </c>
       <c r="C36" t="n">
-        <v>1322</v>
+        <v>233</v>
       </c>
       <c r="D36" t="n">
         <v>144</v>
       </c>
       <c r="E36" t="n">
-        <v>10.89258698941</v>
+        <v>61.8025751072961</v>
       </c>
     </row>
     <row r="37">
@@ -978,13 +978,13 @@
         <v>2023</v>
       </c>
       <c r="C37" t="n">
-        <v>1416</v>
+        <v>169</v>
       </c>
       <c r="D37" t="n">
         <v>75</v>
       </c>
       <c r="E37" t="n">
-        <v>5.29661016949153</v>
+        <v>44.3786982248521</v>
       </c>
     </row>
     <row r="38">
@@ -995,13 +995,13 @@
         <v>2015</v>
       </c>
       <c r="C38" t="n">
-        <v>666</v>
+        <v>221</v>
       </c>
       <c r="D38" t="n">
         <v>91</v>
       </c>
       <c r="E38" t="n">
-        <v>13.6636636636637</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="39">
@@ -1012,13 +1012,13 @@
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>927</v>
+        <v>223</v>
       </c>
       <c r="D39" t="n">
         <v>116</v>
       </c>
       <c r="E39" t="n">
-        <v>12.5134843581446</v>
+        <v>52.0179372197309</v>
       </c>
     </row>
     <row r="40">
@@ -1029,13 +1029,13 @@
         <v>2017</v>
       </c>
       <c r="C40" t="n">
-        <v>1038</v>
+        <v>170</v>
       </c>
       <c r="D40" t="n">
         <v>52</v>
       </c>
       <c r="E40" t="n">
-        <v>5.00963391136801</v>
+        <v>30.5882352941176</v>
       </c>
     </row>
     <row r="41">
@@ -1046,13 +1046,13 @@
         <v>2018</v>
       </c>
       <c r="C41" t="n">
-        <v>910</v>
+        <v>155</v>
       </c>
       <c r="D41" t="n">
         <v>48</v>
       </c>
       <c r="E41" t="n">
-        <v>5.27472527472527</v>
+        <v>30.9677419354839</v>
       </c>
     </row>
     <row r="42">
@@ -1063,13 +1063,13 @@
         <v>2019</v>
       </c>
       <c r="C42" t="n">
-        <v>830</v>
+        <v>136</v>
       </c>
       <c r="D42" t="n">
         <v>35</v>
       </c>
       <c r="E42" t="n">
-        <v>4.21686746987952</v>
+        <v>25.7352941176471</v>
       </c>
     </row>
     <row r="43">
@@ -1080,13 +1080,13 @@
         <v>2020</v>
       </c>
       <c r="C43" t="n">
-        <v>719</v>
+        <v>184</v>
       </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>5.84144645340751</v>
+        <v>22.8260869565217</v>
       </c>
     </row>
     <row r="44">
@@ -1097,13 +1097,13 @@
         <v>2021</v>
       </c>
       <c r="C44" t="n">
-        <v>928</v>
+        <v>82</v>
       </c>
       <c r="D44" t="n">
         <v>41</v>
       </c>
       <c r="E44" t="n">
-        <v>4.41810344827586</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -1114,13 +1114,13 @@
         <v>2022</v>
       </c>
       <c r="C45" t="n">
-        <v>1055</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
         <v>54</v>
       </c>
       <c r="E45" t="n">
-        <v>5.11848341232228</v>
+        <v>55.6701030927835</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1131,13 @@
         <v>2023</v>
       </c>
       <c r="C46" t="n">
-        <v>924</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
         <v>51</v>
       </c>
       <c r="E46" t="n">
-        <v>5.51948051948052</v>
+        <v>49.5145631067961</v>
       </c>
     </row>
     <row r="47">
@@ -1148,13 +1148,13 @@
         <v>2015</v>
       </c>
       <c r="C47" t="n">
-        <v>1596</v>
+        <v>875</v>
       </c>
       <c r="D47" t="n">
         <v>573</v>
       </c>
       <c r="E47" t="n">
-        <v>35.9022556390977</v>
+        <v>65.4857142857143</v>
       </c>
     </row>
     <row r="48">
@@ -1165,13 +1165,13 @@
         <v>2016</v>
       </c>
       <c r="C48" t="n">
-        <v>1604</v>
+        <v>589</v>
       </c>
       <c r="D48" t="n">
         <v>409</v>
       </c>
       <c r="E48" t="n">
-        <v>25.498753117207</v>
+        <v>69.4397283531409</v>
       </c>
     </row>
     <row r="49">
@@ -1182,13 +1182,13 @@
         <v>2017</v>
       </c>
       <c r="C49" t="n">
-        <v>1560</v>
+        <v>401</v>
       </c>
       <c r="D49" t="n">
         <v>140</v>
       </c>
       <c r="E49" t="n">
-        <v>8.97435897435897</v>
+        <v>34.9127182044888</v>
       </c>
     </row>
     <row r="50">
@@ -1199,13 +1199,13 @@
         <v>2018</v>
       </c>
       <c r="C50" t="n">
-        <v>1540</v>
+        <v>395</v>
       </c>
       <c r="D50" t="n">
         <v>121</v>
       </c>
       <c r="E50" t="n">
-        <v>7.85714285714286</v>
+        <v>30.6329113924051</v>
       </c>
     </row>
     <row r="51">
@@ -1216,13 +1216,13 @@
         <v>2019</v>
       </c>
       <c r="C51" t="n">
-        <v>1321</v>
+        <v>327</v>
       </c>
       <c r="D51" t="n">
         <v>102</v>
       </c>
       <c r="E51" t="n">
-        <v>7.72142316426949</v>
+        <v>31.1926605504587</v>
       </c>
     </row>
     <row r="52">
@@ -1233,13 +1233,13 @@
         <v>2020</v>
       </c>
       <c r="C52" t="n">
-        <v>1709</v>
+        <v>280</v>
       </c>
       <c r="D52" t="n">
         <v>73</v>
       </c>
       <c r="E52" t="n">
-        <v>4.2715038033938</v>
+        <v>26.0714285714286</v>
       </c>
     </row>
     <row r="53">
@@ -1250,13 +1250,13 @@
         <v>2021</v>
       </c>
       <c r="C53" t="n">
-        <v>2127</v>
+        <v>178</v>
       </c>
       <c r="D53" t="n">
         <v>54</v>
       </c>
       <c r="E53" t="n">
-        <v>2.53878702397743</v>
+        <v>30.3370786516854</v>
       </c>
     </row>
     <row r="54">
@@ -1267,13 +1267,13 @@
         <v>2022</v>
       </c>
       <c r="C54" t="n">
-        <v>1922</v>
+        <v>204</v>
       </c>
       <c r="D54" t="n">
         <v>92</v>
       </c>
       <c r="E54" t="n">
-        <v>4.78668054110302</v>
+        <v>45.0980392156863</v>
       </c>
     </row>
     <row r="55">
@@ -1284,13 +1284,13 @@
         <v>2023</v>
       </c>
       <c r="C55" t="n">
-        <v>1604</v>
+        <v>172</v>
       </c>
       <c r="D55" t="n">
         <v>58</v>
       </c>
       <c r="E55" t="n">
-        <v>3.61596009975062</v>
+        <v>33.7209302325581</v>
       </c>
     </row>
     <row r="56">
@@ -1301,13 +1301,13 @@
         <v>2015</v>
       </c>
       <c r="C56" t="n">
-        <v>556</v>
+        <v>94</v>
       </c>
       <c r="D56" t="n">
         <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>5.57553956834532</v>
+        <v>32.9787234042553</v>
       </c>
     </row>
     <row r="57">
@@ -1318,13 +1318,13 @@
         <v>2016</v>
       </c>
       <c r="C57" t="n">
-        <v>554</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
         <v>31</v>
       </c>
       <c r="E57" t="n">
-        <v>5.5956678700361</v>
+        <v>50.8196721311475</v>
       </c>
     </row>
     <row r="58">
@@ -1335,13 +1335,13 @@
         <v>2017</v>
       </c>
       <c r="C58" t="n">
-        <v>607</v>
+        <v>235</v>
       </c>
       <c r="D58" t="n">
         <v>55</v>
       </c>
       <c r="E58" t="n">
-        <v>9.06095551894563</v>
+        <v>23.4042553191489</v>
       </c>
     </row>
     <row r="59">
@@ -1352,13 +1352,13 @@
         <v>2018</v>
       </c>
       <c r="C59" t="n">
-        <v>644</v>
+        <v>87</v>
       </c>
       <c r="D59" t="n">
         <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>6.98757763975155</v>
+        <v>51.7241379310345</v>
       </c>
     </row>
     <row r="60">
@@ -1369,13 +1369,13 @@
         <v>2019</v>
       </c>
       <c r="C60" t="n">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="D60" t="n">
         <v>36</v>
       </c>
       <c r="E60" t="n">
-        <v>8.18181818181818</v>
+        <v>45.5696202531646</v>
       </c>
     </row>
     <row r="61">
@@ -1386,13 +1386,13 @@
         <v>2020</v>
       </c>
       <c r="C61" t="n">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="D61" t="n">
         <v>36</v>
       </c>
       <c r="E61" t="n">
-        <v>7.54716981132075</v>
+        <v>43.9024390243902</v>
       </c>
     </row>
     <row r="62">
@@ -1403,13 +1403,13 @@
         <v>2021</v>
       </c>
       <c r="C62" t="n">
-        <v>650</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>32</v>
       </c>
       <c r="E62" t="n">
-        <v>4.92307692307692</v>
+        <v>72.7272727272727</v>
       </c>
     </row>
     <row r="63">
@@ -1420,13 +1420,13 @@
         <v>2022</v>
       </c>
       <c r="C63" t="n">
-        <v>462</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
         <v>39</v>
       </c>
       <c r="E63" t="n">
-        <v>8.44155844155844</v>
+        <v>79.5918367346939</v>
       </c>
     </row>
     <row r="64">
@@ -1437,13 +1437,13 @@
         <v>2023</v>
       </c>
       <c r="C64" t="n">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="D64" t="n">
         <v>53</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9101123595506</v>
+        <v>64.6341463414634</v>
       </c>
     </row>
     <row r="65">
@@ -1454,13 +1454,13 @@
         <v>2015</v>
       </c>
       <c r="C65" t="n">
-        <v>1183</v>
+        <v>631</v>
       </c>
       <c r="D65" t="n">
         <v>394</v>
       </c>
       <c r="E65" t="n">
-        <v>33.3051563820795</v>
+        <v>62.4405705229794</v>
       </c>
     </row>
     <row r="66">
@@ -1471,13 +1471,13 @@
         <v>2016</v>
       </c>
       <c r="C66" t="n">
-        <v>1222</v>
+        <v>438</v>
       </c>
       <c r="D66" t="n">
         <v>275</v>
       </c>
       <c r="E66" t="n">
-        <v>22.5040916530278</v>
+        <v>62.7853881278539</v>
       </c>
     </row>
     <row r="67">
@@ -1488,13 +1488,13 @@
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>885</v>
+        <v>380</v>
       </c>
       <c r="D67" t="n">
         <v>179</v>
       </c>
       <c r="E67" t="n">
-        <v>20.225988700565</v>
+        <v>47.1052631578947</v>
       </c>
     </row>
     <row r="68">
@@ -1505,13 +1505,13 @@
         <v>2018</v>
       </c>
       <c r="C68" t="n">
-        <v>921</v>
+        <v>313</v>
       </c>
       <c r="D68" t="n">
         <v>122</v>
       </c>
       <c r="E68" t="n">
-        <v>13.2464712269273</v>
+        <v>38.9776357827476</v>
       </c>
     </row>
     <row r="69">
@@ -1522,13 +1522,13 @@
         <v>2019</v>
       </c>
       <c r="C69" t="n">
-        <v>587</v>
+        <v>324</v>
       </c>
       <c r="D69" t="n">
         <v>141</v>
       </c>
       <c r="E69" t="n">
-        <v>24.0204429301533</v>
+        <v>43.5185185185185</v>
       </c>
     </row>
     <row r="70">
@@ -1539,13 +1539,13 @@
         <v>2020</v>
       </c>
       <c r="C70" t="n">
-        <v>827</v>
+        <v>249</v>
       </c>
       <c r="D70" t="n">
         <v>104</v>
       </c>
       <c r="E70" t="n">
-        <v>12.5755743651753</v>
+        <v>41.7670682730924</v>
       </c>
     </row>
     <row r="71">
@@ -1556,13 +1556,13 @@
         <v>2021</v>
       </c>
       <c r="C71" t="n">
-        <v>1199</v>
+        <v>194</v>
       </c>
       <c r="D71" t="n">
         <v>109</v>
       </c>
       <c r="E71" t="n">
-        <v>9.09090909090909</v>
+        <v>56.1855670103093</v>
       </c>
     </row>
     <row r="72">
@@ -1573,13 +1573,13 @@
         <v>2022</v>
       </c>
       <c r="C72" t="n">
-        <v>1056</v>
+        <v>176</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>9.46969696969697</v>
+        <v>56.8181818181818</v>
       </c>
     </row>
     <row r="73">
@@ -1590,13 +1590,13 @@
         <v>2023</v>
       </c>
       <c r="C73" t="n">
-        <v>1003</v>
+        <v>192</v>
       </c>
       <c r="D73" t="n">
         <v>83</v>
       </c>
       <c r="E73" t="n">
-        <v>8.27517447657029</v>
+        <v>43.2291666666667</v>
       </c>
     </row>
     <row r="74">
@@ -1607,13 +1607,13 @@
         <v>2015</v>
       </c>
       <c r="C74" t="n">
-        <v>1241</v>
+        <v>134</v>
       </c>
       <c r="D74" t="n">
         <v>86</v>
       </c>
       <c r="E74" t="n">
-        <v>6.92989524576954</v>
+        <v>64.1791044776119</v>
       </c>
     </row>
     <row r="75">
@@ -1624,13 +1624,13 @@
         <v>2016</v>
       </c>
       <c r="C75" t="n">
-        <v>1047</v>
+        <v>77</v>
       </c>
       <c r="D75" t="n">
         <v>52</v>
       </c>
       <c r="E75" t="n">
-        <v>4.9665711556829</v>
+        <v>67.5324675324675</v>
       </c>
     </row>
     <row r="76">
@@ -1641,13 +1641,13 @@
         <v>2017</v>
       </c>
       <c r="C76" t="n">
-        <v>1067</v>
+        <v>118</v>
       </c>
       <c r="D76" t="n">
         <v>60</v>
       </c>
       <c r="E76" t="n">
-        <v>5.6232427366448</v>
+        <v>50.8474576271186</v>
       </c>
     </row>
     <row r="77">
@@ -1658,13 +1658,13 @@
         <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>1330</v>
+        <v>95</v>
       </c>
       <c r="D77" t="n">
         <v>49</v>
       </c>
       <c r="E77" t="n">
-        <v>3.68421052631579</v>
+        <v>51.5789473684211</v>
       </c>
     </row>
     <row r="78">
@@ -1675,13 +1675,13 @@
         <v>2019</v>
       </c>
       <c r="C78" t="n">
-        <v>1405</v>
+        <v>110</v>
       </c>
       <c r="D78" t="n">
         <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>2.91814946619217</v>
+        <v>37.2727272727273</v>
       </c>
     </row>
     <row r="79">
@@ -1692,13 +1692,13 @@
         <v>2020</v>
       </c>
       <c r="C79" t="n">
-        <v>1509</v>
+        <v>119</v>
       </c>
       <c r="D79" t="n">
         <v>59</v>
       </c>
       <c r="E79" t="n">
-        <v>3.90987408880053</v>
+        <v>49.5798319327731</v>
       </c>
     </row>
     <row r="80">
@@ -1709,13 +1709,13 @@
         <v>2021</v>
       </c>
       <c r="C80" t="n">
-        <v>1810</v>
+        <v>129</v>
       </c>
       <c r="D80" t="n">
         <v>93</v>
       </c>
       <c r="E80" t="n">
-        <v>5.13812154696133</v>
+        <v>72.093023255814</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         <v>2022</v>
       </c>
       <c r="C81" t="n">
-        <v>1662</v>
+        <v>130</v>
       </c>
       <c r="D81" t="n">
         <v>97</v>
       </c>
       <c r="E81" t="n">
-        <v>5.83634175691937</v>
+        <v>74.6153846153846</v>
       </c>
     </row>
     <row r="82">
@@ -1743,13 +1743,13 @@
         <v>2023</v>
       </c>
       <c r="C82" t="n">
-        <v>1913</v>
+        <v>96</v>
       </c>
       <c r="D82" t="n">
         <v>59</v>
       </c>
       <c r="E82" t="n">
-        <v>3.08416100365917</v>
+        <v>61.4583333333333</v>
       </c>
     </row>
     <row r="83">
@@ -1760,13 +1760,13 @@
         <v>2015</v>
       </c>
       <c r="C83" t="n">
-        <v>1826</v>
+        <v>91</v>
       </c>
       <c r="D83" t="n">
         <v>52</v>
       </c>
       <c r="E83" t="n">
-        <v>2.84775465498357</v>
+        <v>57.1428571428571</v>
       </c>
     </row>
     <row r="84">
@@ -1777,13 +1777,13 @@
         <v>2016</v>
       </c>
       <c r="C84" t="n">
-        <v>2273</v>
+        <v>60</v>
       </c>
       <c r="D84" t="n">
         <v>52</v>
       </c>
       <c r="E84" t="n">
-        <v>2.28772547294325</v>
+        <v>86.6666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -1794,7 +1794,7 @@
         <v>2017</v>
       </c>
       <c r="C85" t="n">
-        <v>2317</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>2008</v>
+        <v>42</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -1824,13 +1824,13 @@
         <v>2019</v>
       </c>
       <c r="C87" t="n">
-        <v>1248</v>
+        <v>118</v>
       </c>
       <c r="D87" t="n">
         <v>32</v>
       </c>
       <c r="E87" t="n">
-        <v>2.56410256410256</v>
+        <v>27.1186440677966</v>
       </c>
     </row>
     <row r="88">
@@ -1841,13 +1841,13 @@
         <v>2020</v>
       </c>
       <c r="C88" t="n">
-        <v>941</v>
+        <v>119</v>
       </c>
       <c r="D88" t="n">
         <v>55</v>
       </c>
       <c r="E88" t="n">
-        <v>5.84484590860786</v>
+        <v>46.218487394958</v>
       </c>
     </row>
     <row r="89">
@@ -1858,13 +1858,13 @@
         <v>2021</v>
       </c>
       <c r="C89" t="n">
-        <v>1815</v>
+        <v>138</v>
       </c>
       <c r="D89" t="n">
         <v>39</v>
       </c>
       <c r="E89" t="n">
-        <v>2.14876033057851</v>
+        <v>28.2608695652174</v>
       </c>
     </row>
     <row r="90">
@@ -1875,13 +1875,13 @@
         <v>2022</v>
       </c>
       <c r="C90" t="n">
-        <v>1392</v>
+        <v>96</v>
       </c>
       <c r="D90" t="n">
         <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>1.79597701149425</v>
+        <v>26.0416666666667</v>
       </c>
     </row>
     <row r="91">
@@ -1892,13 +1892,13 @@
         <v>2023</v>
       </c>
       <c r="C91" t="n">
-        <v>1345</v>
+        <v>81</v>
       </c>
       <c r="D91" t="n">
         <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>1.85873605947955</v>
+        <v>30.8641975308642</v>
       </c>
     </row>
     <row r="92">
@@ -1909,13 +1909,13 @@
         <v>2015</v>
       </c>
       <c r="C92" t="n">
-        <v>1816</v>
+        <v>438</v>
       </c>
       <c r="D92" t="n">
         <v>227</v>
       </c>
       <c r="E92" t="n">
-        <v>12.5</v>
+        <v>51.8264840182648</v>
       </c>
     </row>
     <row r="93">
@@ -1926,13 +1926,13 @@
         <v>2016</v>
       </c>
       <c r="C93" t="n">
-        <v>2591</v>
+        <v>249</v>
       </c>
       <c r="D93" t="n">
         <v>200</v>
       </c>
       <c r="E93" t="n">
-        <v>7.71902740254728</v>
+        <v>80.3212851405623</v>
       </c>
     </row>
     <row r="94">
@@ -1943,13 +1943,13 @@
         <v>2017</v>
       </c>
       <c r="C94" t="n">
-        <v>2947</v>
+        <v>252</v>
       </c>
       <c r="D94" t="n">
         <v>143</v>
       </c>
       <c r="E94" t="n">
-        <v>4.85239226331863</v>
+        <v>56.7460317460317</v>
       </c>
     </row>
     <row r="95">
@@ -1960,13 +1960,13 @@
         <v>2018</v>
       </c>
       <c r="C95" t="n">
-        <v>2354</v>
+        <v>272</v>
       </c>
       <c r="D95" t="n">
         <v>153</v>
       </c>
       <c r="E95" t="n">
-        <v>6.49957519116398</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="96">
@@ -1977,13 +1977,13 @@
         <v>2019</v>
       </c>
       <c r="C96" t="n">
-        <v>1776</v>
+        <v>303</v>
       </c>
       <c r="D96" t="n">
         <v>198</v>
       </c>
       <c r="E96" t="n">
-        <v>11.1486486486486</v>
+        <v>65.3465346534654</v>
       </c>
     </row>
     <row r="97">
@@ -1994,13 +1994,13 @@
         <v>2020</v>
       </c>
       <c r="C97" t="n">
-        <v>1878</v>
+        <v>321</v>
       </c>
       <c r="D97" t="n">
         <v>208</v>
       </c>
       <c r="E97" t="n">
-        <v>11.0756123535676</v>
+        <v>64.797507788162</v>
       </c>
     </row>
     <row r="98">
@@ -2011,13 +2011,13 @@
         <v>2021</v>
       </c>
       <c r="C98" t="n">
-        <v>2516</v>
+        <v>291</v>
       </c>
       <c r="D98" t="n">
         <v>206</v>
       </c>
       <c r="E98" t="n">
-        <v>8.18759936406995</v>
+        <v>70.7903780068729</v>
       </c>
     </row>
     <row r="99">
@@ -2028,13 +2028,13 @@
         <v>2022</v>
       </c>
       <c r="C99" t="n">
-        <v>2850</v>
+        <v>333</v>
       </c>
       <c r="D99" t="n">
         <v>241</v>
       </c>
       <c r="E99" t="n">
-        <v>8.45614035087719</v>
+        <v>72.3723723723724</v>
       </c>
     </row>
     <row r="100">
@@ -2045,13 +2045,13 @@
         <v>2023</v>
       </c>
       <c r="C100" t="n">
-        <v>2498</v>
+        <v>314</v>
       </c>
       <c r="D100" t="n">
         <v>185</v>
       </c>
       <c r="E100" t="n">
-        <v>7.40592473979183</v>
+        <v>58.9171974522293</v>
       </c>
     </row>
     <row r="101">
@@ -2062,13 +2062,13 @@
         <v>2015</v>
       </c>
       <c r="C101" t="n">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="D101" t="n">
         <v>45</v>
       </c>
       <c r="E101" t="n">
-        <v>19.8237885462555</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -2079,13 +2079,13 @@
         <v>2016</v>
       </c>
       <c r="C102" t="n">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="D102" t="n">
         <v>28</v>
       </c>
       <c r="E102" t="n">
-        <v>10.9803921568627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2096,13 +2096,13 @@
         <v>2017</v>
       </c>
       <c r="C103" t="n">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
         <v>20</v>
       </c>
       <c r="E103" t="n">
-        <v>6.64451827242525</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +2113,13 @@
         <v>2018</v>
       </c>
       <c r="C104" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D104" t="n">
         <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>5.46875</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="105">
@@ -2130,7 +2130,7 @@
         <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>346</v>
+        <v>59</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>2020</v>
       </c>
       <c r="C106" t="n">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
@@ -2160,7 +2160,7 @@
         <v>2021</v>
       </c>
       <c r="C107" t="n">
-        <v>345</v>
+        <v>57</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
@@ -2173,7 +2173,7 @@
         <v>2022</v>
       </c>
       <c r="C108" t="n">
-        <v>376</v>
+        <v>73</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
@@ -2186,13 +2186,13 @@
         <v>2023</v>
       </c>
       <c r="C109" t="n">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="D109" t="n">
         <v>70</v>
       </c>
       <c r="E109" t="n">
-        <v>17.5879396984925</v>
+        <v>32.8638497652582</v>
       </c>
     </row>
     <row r="110">
@@ -2203,13 +2203,13 @@
         <v>2015</v>
       </c>
       <c r="C110" t="n">
-        <v>704</v>
+        <v>336</v>
       </c>
       <c r="D110" t="n">
         <v>178</v>
       </c>
       <c r="E110" t="n">
-        <v>25.2840909090909</v>
+        <v>52.9761904761905</v>
       </c>
     </row>
     <row r="111">
@@ -2220,13 +2220,13 @@
         <v>2016</v>
       </c>
       <c r="C111" t="n">
-        <v>949</v>
+        <v>210</v>
       </c>
       <c r="D111" t="n">
         <v>126</v>
       </c>
       <c r="E111" t="n">
-        <v>13.277133825079</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
@@ -2237,13 +2237,13 @@
         <v>2017</v>
       </c>
       <c r="C112" t="n">
-        <v>1303</v>
+        <v>329</v>
       </c>
       <c r="D112" t="n">
         <v>131</v>
       </c>
       <c r="E112" t="n">
-        <v>10.0537221795856</v>
+        <v>39.8176291793313</v>
       </c>
     </row>
     <row r="113">
@@ -2254,13 +2254,13 @@
         <v>2018</v>
       </c>
       <c r="C113" t="n">
-        <v>1164</v>
+        <v>297</v>
       </c>
       <c r="D113" t="n">
         <v>132</v>
       </c>
       <c r="E113" t="n">
-        <v>11.340206185567</v>
+        <v>44.4444444444444</v>
       </c>
     </row>
     <row r="114">
@@ -2271,13 +2271,13 @@
         <v>2019</v>
       </c>
       <c r="C114" t="n">
-        <v>1099</v>
+        <v>222</v>
       </c>
       <c r="D114" t="n">
         <v>104</v>
       </c>
       <c r="E114" t="n">
-        <v>9.4631483166515</v>
+        <v>46.8468468468468</v>
       </c>
     </row>
     <row r="115">
@@ -2288,13 +2288,13 @@
         <v>2020</v>
       </c>
       <c r="C115" t="n">
-        <v>952</v>
+        <v>197</v>
       </c>
       <c r="D115" t="n">
         <v>70</v>
       </c>
       <c r="E115" t="n">
-        <v>7.35294117647059</v>
+        <v>35.5329949238579</v>
       </c>
     </row>
     <row r="116">
@@ -2305,13 +2305,13 @@
         <v>2021</v>
       </c>
       <c r="C116" t="n">
-        <v>979</v>
+        <v>176</v>
       </c>
       <c r="D116" t="n">
         <v>63</v>
       </c>
       <c r="E116" t="n">
-        <v>6.43513789581205</v>
+        <v>35.7954545454545</v>
       </c>
     </row>
     <row r="117">
@@ -2322,13 +2322,13 @@
         <v>2022</v>
       </c>
       <c r="C117" t="n">
-        <v>1020</v>
+        <v>203</v>
       </c>
       <c r="D117" t="n">
         <v>80</v>
       </c>
       <c r="E117" t="n">
-        <v>7.84313725490196</v>
+        <v>39.4088669950739</v>
       </c>
     </row>
     <row r="118">
@@ -2339,13 +2339,13 @@
         <v>2023</v>
       </c>
       <c r="C118" t="n">
-        <v>920</v>
+        <v>226</v>
       </c>
       <c r="D118" t="n">
         <v>93</v>
       </c>
       <c r="E118" t="n">
-        <v>10.1086956521739</v>
+        <v>41.1504424778761</v>
       </c>
     </row>
     <row r="119">
@@ -2356,13 +2356,13 @@
         <v>2015</v>
       </c>
       <c r="C119" t="n">
-        <v>907</v>
+        <v>161</v>
       </c>
       <c r="D119" t="n">
         <v>49</v>
       </c>
       <c r="E119" t="n">
-        <v>5.40242557883131</v>
+        <v>30.4347826086957</v>
       </c>
     </row>
     <row r="120">
@@ -2373,13 +2373,13 @@
         <v>2016</v>
       </c>
       <c r="C120" t="n">
-        <v>617</v>
+        <v>41</v>
       </c>
       <c r="D120" t="n">
         <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>2.91734197730956</v>
+        <v>43.9024390243902</v>
       </c>
     </row>
     <row r="121">
@@ -2390,13 +2390,13 @@
         <v>2017</v>
       </c>
       <c r="C121" t="n">
-        <v>886</v>
+        <v>55</v>
       </c>
       <c r="D121" t="n">
         <v>21</v>
       </c>
       <c r="E121" t="n">
-        <v>2.37020316027088</v>
+        <v>38.1818181818182</v>
       </c>
     </row>
     <row r="122">
@@ -2407,13 +2407,13 @@
         <v>2018</v>
       </c>
       <c r="C122" t="n">
-        <v>669</v>
+        <v>35</v>
       </c>
       <c r="D122" t="n">
         <v>35</v>
       </c>
       <c r="E122" t="n">
-        <v>5.23168908819133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
@@ -2424,13 +2424,13 @@
         <v>2019</v>
       </c>
       <c r="C123" t="n">
-        <v>531</v>
+        <v>32</v>
       </c>
       <c r="D123" t="n">
         <v>32</v>
       </c>
       <c r="E123" t="n">
-        <v>6.02636534839925</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
@@ -2441,13 +2441,13 @@
         <v>2020</v>
       </c>
       <c r="C124" t="n">
-        <v>475</v>
+        <v>70</v>
       </c>
       <c r="D124" t="n">
         <v>70</v>
       </c>
       <c r="E124" t="n">
-        <v>14.7368421052632</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
@@ -2458,13 +2458,13 @@
         <v>2021</v>
       </c>
       <c r="C125" t="n">
-        <v>632</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
         <v>102</v>
       </c>
       <c r="E125" t="n">
-        <v>16.1392405063291</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
@@ -2475,13 +2475,13 @@
         <v>2022</v>
       </c>
       <c r="C126" t="n">
-        <v>635</v>
+        <v>72</v>
       </c>
       <c r="D126" t="n">
         <v>72</v>
       </c>
       <c r="E126" t="n">
-        <v>11.3385826771654</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
@@ -2492,13 +2492,13 @@
         <v>2023</v>
       </c>
       <c r="C127" t="n">
-        <v>591</v>
+        <v>60</v>
       </c>
       <c r="D127" t="n">
         <v>60</v>
       </c>
       <c r="E127" t="n">
-        <v>10.1522842639594</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
@@ -2509,13 +2509,13 @@
         <v>2015</v>
       </c>
       <c r="C128" t="n">
-        <v>1189</v>
+        <v>73</v>
       </c>
       <c r="D128" t="n">
         <v>73</v>
       </c>
       <c r="E128" t="n">
-        <v>6.13961312026913</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
@@ -2526,13 +2526,13 @@
         <v>2016</v>
       </c>
       <c r="C129" t="n">
-        <v>1529</v>
+        <v>68</v>
       </c>
       <c r="D129" t="n">
         <v>68</v>
       </c>
       <c r="E129" t="n">
-        <v>4.44735120994114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
@@ -2543,13 +2543,13 @@
         <v>2017</v>
       </c>
       <c r="C130" t="n">
-        <v>1683</v>
+        <v>40</v>
       </c>
       <c r="D130" t="n">
         <v>40</v>
       </c>
       <c r="E130" t="n">
-        <v>2.3767082590612</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
@@ -2560,13 +2560,13 @@
         <v>2018</v>
       </c>
       <c r="C131" t="n">
-        <v>1630</v>
+        <v>40</v>
       </c>
       <c r="D131" t="n">
         <v>40</v>
       </c>
       <c r="E131" t="n">
-        <v>2.45398773006135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
@@ -2577,13 +2577,13 @@
         <v>2019</v>
       </c>
       <c r="C132" t="n">
-        <v>1591</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
         <v>36</v>
       </c>
       <c r="E132" t="n">
-        <v>2.26272784412319</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -2594,13 +2594,13 @@
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>1320</v>
+        <v>47</v>
       </c>
       <c r="D133" t="n">
         <v>46</v>
       </c>
       <c r="E133" t="n">
-        <v>3.48484848484849</v>
+        <v>97.8723404255319</v>
       </c>
     </row>
     <row r="134">
@@ -2611,13 +2611,13 @@
         <v>2021</v>
       </c>
       <c r="C134" t="n">
-        <v>1816</v>
+        <v>62</v>
       </c>
       <c r="D134" t="n">
         <v>61</v>
       </c>
       <c r="E134" t="n">
-        <v>3.3590308370044</v>
+        <v>98.3870967741936</v>
       </c>
     </row>
     <row r="135">
@@ -2628,13 +2628,13 @@
         <v>2022</v>
       </c>
       <c r="C135" t="n">
-        <v>1581</v>
+        <v>73</v>
       </c>
       <c r="D135" t="n">
         <v>73</v>
       </c>
       <c r="E135" t="n">
-        <v>4.61733080328906</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
@@ -2645,13 +2645,13 @@
         <v>2023</v>
       </c>
       <c r="C136" t="n">
-        <v>1621</v>
+        <v>84</v>
       </c>
       <c r="D136" t="n">
         <v>84</v>
       </c>
       <c r="E136" t="n">
-        <v>5.18198642813078</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
@@ -2662,13 +2662,13 @@
         <v>2015</v>
       </c>
       <c r="C137" t="n">
-        <v>1093</v>
+        <v>273</v>
       </c>
       <c r="D137" t="n">
         <v>134</v>
       </c>
       <c r="E137" t="n">
-        <v>12.259835315645</v>
+        <v>49.0842490842491</v>
       </c>
     </row>
     <row r="138">
@@ -2679,13 +2679,13 @@
         <v>2016</v>
       </c>
       <c r="C138" t="n">
-        <v>1246</v>
+        <v>164</v>
       </c>
       <c r="D138" t="n">
         <v>78</v>
       </c>
       <c r="E138" t="n">
-        <v>6.26003210272873</v>
+        <v>47.5609756097561</v>
       </c>
     </row>
     <row r="139">
@@ -2696,13 +2696,13 @@
         <v>2017</v>
       </c>
       <c r="C139" t="n">
-        <v>1266</v>
+        <v>215</v>
       </c>
       <c r="D139" t="n">
         <v>89</v>
       </c>
       <c r="E139" t="n">
-        <v>7.03001579778831</v>
+        <v>41.3953488372093</v>
       </c>
     </row>
     <row r="140">
@@ -2713,13 +2713,13 @@
         <v>2018</v>
       </c>
       <c r="C140" t="n">
-        <v>1348</v>
+        <v>202</v>
       </c>
       <c r="D140" t="n">
         <v>84</v>
       </c>
       <c r="E140" t="n">
-        <v>6.23145400593472</v>
+        <v>41.5841584158416</v>
       </c>
     </row>
     <row r="141">
@@ -2730,13 +2730,13 @@
         <v>2019</v>
       </c>
       <c r="C141" t="n">
-        <v>765</v>
+        <v>199</v>
       </c>
       <c r="D141" t="n">
         <v>84</v>
       </c>
       <c r="E141" t="n">
-        <v>10.9803921568627</v>
+        <v>42.2110552763819</v>
       </c>
     </row>
     <row r="142">
@@ -2747,13 +2747,13 @@
         <v>2020</v>
       </c>
       <c r="C142" t="n">
-        <v>1071</v>
+        <v>202</v>
       </c>
       <c r="D142" t="n">
         <v>87</v>
       </c>
       <c r="E142" t="n">
-        <v>8.12324929971989</v>
+        <v>43.0693069306931</v>
       </c>
     </row>
     <row r="143">
@@ -2764,13 +2764,13 @@
         <v>2021</v>
       </c>
       <c r="C143" t="n">
-        <v>1530</v>
+        <v>183</v>
       </c>
       <c r="D143" t="n">
         <v>83</v>
       </c>
       <c r="E143" t="n">
-        <v>5.42483660130719</v>
+        <v>45.3551912568306</v>
       </c>
     </row>
     <row r="144">
@@ -2781,13 +2781,13 @@
         <v>2022</v>
       </c>
       <c r="C144" t="n">
-        <v>1171</v>
+        <v>209</v>
       </c>
       <c r="D144" t="n">
         <v>94</v>
       </c>
       <c r="E144" t="n">
-        <v>8.02732707087959</v>
+        <v>44.9760765550239</v>
       </c>
     </row>
     <row r="145">
@@ -2798,13 +2798,13 @@
         <v>2023</v>
       </c>
       <c r="C145" t="n">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="D145" t="n">
         <v>59</v>
       </c>
       <c r="E145" t="n">
-        <v>5.1038062283737</v>
+        <v>33.7142857142857</v>
       </c>
     </row>
     <row r="146">
@@ -2815,13 +2815,13 @@
         <v>2015</v>
       </c>
       <c r="C146" t="n">
-        <v>1948</v>
+        <v>322</v>
       </c>
       <c r="D146" t="n">
         <v>195</v>
       </c>
       <c r="E146" t="n">
-        <v>10.0102669404517</v>
+        <v>60.5590062111801</v>
       </c>
     </row>
     <row r="147">
@@ -2832,13 +2832,13 @@
         <v>2016</v>
       </c>
       <c r="C147" t="n">
-        <v>2846</v>
+        <v>318</v>
       </c>
       <c r="D147" t="n">
         <v>162</v>
       </c>
       <c r="E147" t="n">
-        <v>5.69219957835559</v>
+        <v>50.9433962264151</v>
       </c>
     </row>
     <row r="148">
@@ -2849,13 +2849,13 @@
         <v>2017</v>
       </c>
       <c r="C148" t="n">
-        <v>2447</v>
+        <v>188</v>
       </c>
       <c r="D148" t="n">
         <v>75</v>
       </c>
       <c r="E148" t="n">
-        <v>3.06497752349816</v>
+        <v>39.8936170212766</v>
       </c>
     </row>
     <row r="149">
@@ -2866,13 +2866,13 @@
         <v>2018</v>
       </c>
       <c r="C149" t="n">
-        <v>2098</v>
+        <v>169</v>
       </c>
       <c r="D149" t="n">
         <v>61</v>
       </c>
       <c r="E149" t="n">
-        <v>2.90753098188751</v>
+        <v>36.094674556213</v>
       </c>
     </row>
     <row r="150">
@@ -2883,13 +2883,13 @@
         <v>2019</v>
       </c>
       <c r="C150" t="n">
-        <v>1626</v>
+        <v>104</v>
       </c>
       <c r="D150" t="n">
         <v>48</v>
       </c>
       <c r="E150" t="n">
-        <v>2.9520295202952</v>
+        <v>46.1538461538462</v>
       </c>
     </row>
     <row r="151">
@@ -2900,13 +2900,13 @@
         <v>2020</v>
       </c>
       <c r="C151" t="n">
-        <v>1648</v>
+        <v>126</v>
       </c>
       <c r="D151" t="n">
         <v>39</v>
       </c>
       <c r="E151" t="n">
-        <v>2.36650485436893</v>
+        <v>30.952380952381</v>
       </c>
     </row>
     <row r="152">
@@ -2917,13 +2917,13 @@
         <v>2021</v>
       </c>
       <c r="C152" t="n">
-        <v>2344</v>
+        <v>108</v>
       </c>
       <c r="D152" t="n">
         <v>44</v>
       </c>
       <c r="E152" t="n">
-        <v>1.87713310580205</v>
+        <v>40.7407407407407</v>
       </c>
     </row>
     <row r="153">
@@ -2934,13 +2934,13 @@
         <v>2022</v>
       </c>
       <c r="C153" t="n">
-        <v>2403</v>
+        <v>143</v>
       </c>
       <c r="D153" t="n">
         <v>79</v>
       </c>
       <c r="E153" t="n">
-        <v>3.28755722014149</v>
+        <v>55.2447552447552</v>
       </c>
     </row>
     <row r="154">
@@ -2951,13 +2951,13 @@
         <v>2023</v>
       </c>
       <c r="C154" t="n">
-        <v>2414</v>
+        <v>123</v>
       </c>
       <c r="D154" t="n">
         <v>63</v>
       </c>
       <c r="E154" t="n">
-        <v>2.60977630488815</v>
+        <v>51.219512195122</v>
       </c>
     </row>
     <row r="155">
@@ -2968,13 +2968,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>818</v>
+        <v>230</v>
       </c>
       <c r="D155" t="n">
         <v>124</v>
       </c>
       <c r="E155" t="n">
-        <v>15.158924205379</v>
+        <v>53.9130434782609</v>
       </c>
     </row>
     <row r="156">
@@ -2985,13 +2985,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>840</v>
+        <v>166</v>
       </c>
       <c r="D156" t="n">
         <v>98</v>
       </c>
       <c r="E156" t="n">
-        <v>11.6666666666667</v>
+        <v>59.0361445783133</v>
       </c>
     </row>
     <row r="157">
@@ -3002,13 +3002,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>852</v>
+        <v>233</v>
       </c>
       <c r="D157" t="n">
         <v>94</v>
       </c>
       <c r="E157" t="n">
-        <v>11.0328638497653</v>
+        <v>40.343347639485</v>
       </c>
     </row>
     <row r="158">
@@ -3019,13 +3019,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>901</v>
+        <v>229</v>
       </c>
       <c r="D158" t="n">
         <v>82</v>
       </c>
       <c r="E158" t="n">
-        <v>9.10099889012209</v>
+        <v>35.8078602620087</v>
       </c>
     </row>
     <row r="159">
@@ -3036,13 +3036,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>929</v>
+        <v>301</v>
       </c>
       <c r="D159" t="n">
         <v>94</v>
       </c>
       <c r="E159" t="n">
-        <v>10.1184068891281</v>
+        <v>31.2292358803987</v>
       </c>
     </row>
     <row r="160">
@@ -3053,13 +3053,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>747</v>
+        <v>309</v>
       </c>
       <c r="D160" t="n">
         <v>115</v>
       </c>
       <c r="E160" t="n">
-        <v>15.3949129852744</v>
+        <v>37.2168284789644</v>
       </c>
     </row>
     <row r="161">
@@ -3070,13 +3070,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1003</v>
+        <v>303</v>
       </c>
       <c r="D161" t="n">
         <v>121</v>
       </c>
       <c r="E161" t="n">
-        <v>12.0638085742772</v>
+        <v>39.9339933993399</v>
       </c>
     </row>
     <row r="162">
@@ -3087,13 +3087,13 @@
         <v>2022</v>
       </c>
       <c r="C162" t="n">
-        <v>1096</v>
+        <v>347</v>
       </c>
       <c r="D162" t="n">
         <v>156</v>
       </c>
       <c r="E162" t="n">
-        <v>14.2335766423358</v>
+        <v>44.956772334294</v>
       </c>
     </row>
     <row r="163">
@@ -3104,13 +3104,13 @@
         <v>2023</v>
       </c>
       <c r="C163" t="n">
-        <v>1008</v>
+        <v>241</v>
       </c>
       <c r="D163" t="n">
         <v>111</v>
       </c>
       <c r="E163" t="n">
-        <v>11.0119047619048</v>
+        <v>46.0580912863071</v>
       </c>
     </row>
     <row r="164">
@@ -3121,13 +3121,13 @@
         <v>2015</v>
       </c>
       <c r="C164" t="n">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="D164" t="n">
         <v>331</v>
       </c>
       <c r="E164" t="n">
-        <v>55.6302521008403</v>
+        <v>65.0294695481336</v>
       </c>
     </row>
     <row r="165">
@@ -3138,13 +3138,13 @@
         <v>2016</v>
       </c>
       <c r="C165" t="n">
-        <v>636</v>
+        <v>319</v>
       </c>
       <c r="D165" t="n">
         <v>203</v>
       </c>
       <c r="E165" t="n">
-        <v>31.9182389937107</v>
+        <v>63.6363636363636</v>
       </c>
     </row>
     <row r="166">
@@ -3155,13 +3155,13 @@
         <v>2017</v>
       </c>
       <c r="C166" t="n">
-        <v>706</v>
+        <v>219</v>
       </c>
       <c r="D166" t="n">
         <v>97</v>
       </c>
       <c r="E166" t="n">
-        <v>13.7393767705382</v>
+        <v>44.2922374429224</v>
       </c>
     </row>
     <row r="167">
@@ -3172,13 +3172,13 @@
         <v>2018</v>
       </c>
       <c r="C167" t="n">
-        <v>985</v>
+        <v>201</v>
       </c>
       <c r="D167" t="n">
         <v>84</v>
       </c>
       <c r="E167" t="n">
-        <v>8.52791878172589</v>
+        <v>41.7910447761194</v>
       </c>
     </row>
     <row r="168">
@@ -3189,13 +3189,13 @@
         <v>2019</v>
       </c>
       <c r="C168" t="n">
-        <v>1081</v>
+        <v>193</v>
       </c>
       <c r="D168" t="n">
         <v>69</v>
       </c>
       <c r="E168" t="n">
-        <v>6.38297872340426</v>
+        <v>35.7512953367876</v>
       </c>
     </row>
     <row r="169">
@@ -3206,13 +3206,13 @@
         <v>2020</v>
       </c>
       <c r="C169" t="n">
-        <v>789</v>
+        <v>193</v>
       </c>
       <c r="D169" t="n">
         <v>60</v>
       </c>
       <c r="E169" t="n">
-        <v>7.60456273764259</v>
+        <v>31.0880829015544</v>
       </c>
     </row>
     <row r="170">
@@ -3223,13 +3223,13 @@
         <v>2021</v>
       </c>
       <c r="C170" t="n">
-        <v>942</v>
+        <v>187</v>
       </c>
       <c r="D170" t="n">
         <v>77</v>
       </c>
       <c r="E170" t="n">
-        <v>8.17409766454352</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="171">
@@ -3240,13 +3240,13 @@
         <v>2022</v>
       </c>
       <c r="C171" t="n">
-        <v>870</v>
+        <v>208</v>
       </c>
       <c r="D171" t="n">
         <v>134</v>
       </c>
       <c r="E171" t="n">
-        <v>15.4022988505747</v>
+        <v>64.4230769230769</v>
       </c>
     </row>
     <row r="172">
@@ -3257,13 +3257,13 @@
         <v>2023</v>
       </c>
       <c r="C172" t="n">
-        <v>852</v>
+        <v>152</v>
       </c>
       <c r="D172" t="n">
         <v>83</v>
       </c>
       <c r="E172" t="n">
-        <v>9.74178403755869</v>
+        <v>54.6052631578947</v>
       </c>
     </row>
     <row r="173">
@@ -3274,13 +3274,13 @@
         <v>2015</v>
       </c>
       <c r="C173" t="n">
-        <v>1068</v>
+        <v>555</v>
       </c>
       <c r="D173" t="n">
         <v>317</v>
       </c>
       <c r="E173" t="n">
-        <v>29.6816479400749</v>
+        <v>57.1171171171171</v>
       </c>
     </row>
     <row r="174">
@@ -3291,13 +3291,13 @@
         <v>2016</v>
       </c>
       <c r="C174" t="n">
-        <v>1135</v>
+        <v>383</v>
       </c>
       <c r="D174" t="n">
         <v>245</v>
       </c>
       <c r="E174" t="n">
-        <v>21.5859030837004</v>
+        <v>63.9686684073107</v>
       </c>
     </row>
     <row r="175">
@@ -3308,13 +3308,13 @@
         <v>2017</v>
       </c>
       <c r="C175" t="n">
-        <v>910</v>
+        <v>405</v>
       </c>
       <c r="D175" t="n">
         <v>227</v>
       </c>
       <c r="E175" t="n">
-        <v>24.9450549450549</v>
+        <v>56.0493827160494</v>
       </c>
     </row>
     <row r="176">
@@ -3325,13 +3325,13 @@
         <v>2018</v>
       </c>
       <c r="C176" t="n">
-        <v>901</v>
+        <v>398</v>
       </c>
       <c r="D176" t="n">
         <v>245</v>
       </c>
       <c r="E176" t="n">
-        <v>27.1920088790233</v>
+        <v>61.5577889447236</v>
       </c>
     </row>
     <row r="177">
@@ -3342,13 +3342,13 @@
         <v>2019</v>
       </c>
       <c r="C177" t="n">
-        <v>720</v>
+        <v>401</v>
       </c>
       <c r="D177" t="n">
         <v>240</v>
       </c>
       <c r="E177" t="n">
-        <v>33.3333333333333</v>
+        <v>59.8503740648379</v>
       </c>
     </row>
     <row r="178">
@@ -3359,13 +3359,13 @@
         <v>2020</v>
       </c>
       <c r="C178" t="n">
-        <v>812</v>
+        <v>342</v>
       </c>
       <c r="D178" t="n">
         <v>202</v>
       </c>
       <c r="E178" t="n">
-        <v>24.8768472906404</v>
+        <v>59.0643274853801</v>
       </c>
     </row>
     <row r="179">
@@ -3376,13 +3376,13 @@
         <v>2021</v>
       </c>
       <c r="C179" t="n">
-        <v>990</v>
+        <v>248</v>
       </c>
       <c r="D179" t="n">
         <v>160</v>
       </c>
       <c r="E179" t="n">
-        <v>16.1616161616162</v>
+        <v>64.5161290322581</v>
       </c>
     </row>
     <row r="180">
@@ -3393,13 +3393,13 @@
         <v>2022</v>
       </c>
       <c r="C180" t="n">
-        <v>856</v>
+        <v>254</v>
       </c>
       <c r="D180" t="n">
         <v>159</v>
       </c>
       <c r="E180" t="n">
-        <v>18.5747663551402</v>
+        <v>62.5984251968504</v>
       </c>
     </row>
     <row r="181">
@@ -3410,13 +3410,13 @@
         <v>2023</v>
       </c>
       <c r="C181" t="n">
-        <v>856</v>
+        <v>158</v>
       </c>
       <c r="D181" t="n">
         <v>67</v>
       </c>
       <c r="E181" t="n">
-        <v>7.82710280373832</v>
+        <v>42.4050632911392</v>
       </c>
     </row>
     <row r="182">
@@ -3427,13 +3427,13 @@
         <v>2015</v>
       </c>
       <c r="C182" t="n">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="D182" t="n">
         <v>232</v>
       </c>
       <c r="E182" t="n">
-        <v>29.5165394402036</v>
+        <v>30.4862023653088</v>
       </c>
     </row>
     <row r="183">
@@ -3444,13 +3444,13 @@
         <v>2016</v>
       </c>
       <c r="C183" t="n">
-        <v>891</v>
+        <v>598</v>
       </c>
       <c r="D183" t="n">
         <v>235</v>
       </c>
       <c r="E183" t="n">
-        <v>26.374859708193</v>
+        <v>39.2976588628763</v>
       </c>
     </row>
     <row r="184">
@@ -3461,13 +3461,13 @@
         <v>2017</v>
       </c>
       <c r="C184" t="n">
-        <v>944</v>
+        <v>602</v>
       </c>
       <c r="D184" t="n">
         <v>173</v>
       </c>
       <c r="E184" t="n">
-        <v>18.3262711864407</v>
+        <v>28.7375415282392</v>
       </c>
     </row>
     <row r="185">
@@ -3478,13 +3478,13 @@
         <v>2018</v>
       </c>
       <c r="C185" t="n">
-        <v>1014</v>
+        <v>828</v>
       </c>
       <c r="D185" t="n">
         <v>310</v>
       </c>
       <c r="E185" t="n">
-        <v>30.5719921104536</v>
+        <v>37.43961352657</v>
       </c>
     </row>
     <row r="186">
@@ -3495,13 +3495,13 @@
         <v>2019</v>
       </c>
       <c r="C186" t="n">
-        <v>996</v>
+        <v>595</v>
       </c>
       <c r="D186" t="n">
         <v>190</v>
       </c>
       <c r="E186" t="n">
-        <v>19.0763052208835</v>
+        <v>31.9327731092437</v>
       </c>
     </row>
     <row r="187">
@@ -3512,13 +3512,13 @@
         <v>2020</v>
       </c>
       <c r="C187" t="n">
-        <v>1365</v>
+        <v>595</v>
       </c>
       <c r="D187" t="n">
         <v>178</v>
       </c>
       <c r="E187" t="n">
-        <v>13.040293040293</v>
+        <v>29.9159663865546</v>
       </c>
     </row>
     <row r="188">
@@ -3529,13 +3529,13 @@
         <v>2021</v>
       </c>
       <c r="C188" t="n">
-        <v>1972</v>
+        <v>542</v>
       </c>
       <c r="D188" t="n">
         <v>200</v>
       </c>
       <c r="E188" t="n">
-        <v>10.1419878296146</v>
+        <v>36.90036900369</v>
       </c>
     </row>
     <row r="189">
@@ -3546,13 +3546,13 @@
         <v>2022</v>
       </c>
       <c r="C189" t="n">
-        <v>1657</v>
+        <v>678</v>
       </c>
       <c r="D189" t="n">
         <v>309</v>
       </c>
       <c r="E189" t="n">
-        <v>18.6481593240797</v>
+        <v>45.575221238938</v>
       </c>
     </row>
     <row r="190">
@@ -3563,13 +3563,13 @@
         <v>2023</v>
       </c>
       <c r="C190" t="n">
-        <v>1579</v>
+        <v>650</v>
       </c>
       <c r="D190" t="n">
         <v>275</v>
       </c>
       <c r="E190" t="n">
-        <v>17.4160861304623</v>
+        <v>42.3076923076923</v>
       </c>
     </row>
     <row r="191">
@@ -3580,13 +3580,13 @@
         <v>2015</v>
       </c>
       <c r="C191" t="n">
-        <v>718</v>
+        <v>64</v>
       </c>
       <c r="D191" t="n">
         <v>40</v>
       </c>
       <c r="E191" t="n">
-        <v>5.57103064066852</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="192">
@@ -3597,13 +3597,13 @@
         <v>2016</v>
       </c>
       <c r="C192" t="n">
-        <v>738</v>
+        <v>40</v>
       </c>
       <c r="D192" t="n">
         <v>40</v>
       </c>
       <c r="E192" t="n">
-        <v>5.42005420054201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193">
@@ -3614,13 +3614,13 @@
         <v>2017</v>
       </c>
       <c r="C193" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
-      <c r="E193" t="n">
-        <v>0</v>
+      <c r="E193" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="194">
@@ -3631,13 +3631,13 @@
         <v>2018</v>
       </c>
       <c r="C194" t="n">
-        <v>718</v>
+        <v>25</v>
       </c>
       <c r="D194" t="n">
         <v>25</v>
       </c>
       <c r="E194" t="n">
-        <v>3.48189415041783</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195">
@@ -3648,13 +3648,13 @@
         <v>2019</v>
       </c>
       <c r="C195" t="n">
-        <v>549</v>
+        <v>25</v>
       </c>
       <c r="D195" t="n">
         <v>25</v>
       </c>
       <c r="E195" t="n">
-        <v>4.55373406193078</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196">
@@ -3665,13 +3665,13 @@
         <v>2020</v>
       </c>
       <c r="C196" t="n">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="D196" t="n">
         <v>22</v>
       </c>
       <c r="E196" t="n">
-        <v>5.33980582524272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -3682,13 +3682,13 @@
         <v>2021</v>
       </c>
       <c r="C197" t="n">
-        <v>501</v>
+        <v>95</v>
       </c>
       <c r="D197" t="n">
         <v>95</v>
       </c>
       <c r="E197" t="n">
-        <v>18.9620758483034</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198">
@@ -3699,13 +3699,13 @@
         <v>2022</v>
       </c>
       <c r="C198" t="n">
-        <v>431</v>
+        <v>62</v>
       </c>
       <c r="D198" t="n">
         <v>62</v>
       </c>
       <c r="E198" t="n">
-        <v>14.385150812065</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199">
@@ -3716,13 +3716,13 @@
         <v>2023</v>
       </c>
       <c r="C199" t="n">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="D199" t="n">
         <v>23</v>
       </c>
       <c r="E199" t="n">
-        <v>6.11702127659574</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
@@ -3733,13 +3733,13 @@
         <v>2015</v>
       </c>
       <c r="C200" t="n">
-        <v>982</v>
+        <v>590</v>
       </c>
       <c r="D200" t="n">
         <v>368</v>
       </c>
       <c r="E200" t="n">
-        <v>37.4745417515275</v>
+        <v>62.3728813559322</v>
       </c>
     </row>
     <row r="201">
@@ -3750,13 +3750,13 @@
         <v>2016</v>
       </c>
       <c r="C201" t="n">
-        <v>1293</v>
+        <v>391</v>
       </c>
       <c r="D201" t="n">
         <v>250</v>
       </c>
       <c r="E201" t="n">
-        <v>19.3348801237432</v>
+        <v>63.9386189258312</v>
       </c>
     </row>
     <row r="202">
@@ -3767,13 +3767,13 @@
         <v>2017</v>
       </c>
       <c r="C202" t="n">
-        <v>1143</v>
+        <v>305</v>
       </c>
       <c r="D202" t="n">
         <v>165</v>
       </c>
       <c r="E202" t="n">
-        <v>14.4356955380577</v>
+        <v>54.0983606557377</v>
       </c>
     </row>
     <row r="203">
@@ -3784,13 +3784,13 @@
         <v>2018</v>
       </c>
       <c r="C203" t="n">
-        <v>1122</v>
+        <v>273</v>
       </c>
       <c r="D203" t="n">
         <v>165</v>
       </c>
       <c r="E203" t="n">
-        <v>14.7058823529412</v>
+        <v>60.4395604395604</v>
       </c>
     </row>
     <row r="204">
@@ -3801,13 +3801,13 @@
         <v>2019</v>
       </c>
       <c r="C204" t="n">
-        <v>1129</v>
+        <v>278</v>
       </c>
       <c r="D204" t="n">
         <v>173</v>
       </c>
       <c r="E204" t="n">
-        <v>15.3232949512843</v>
+        <v>62.2302158273381</v>
       </c>
     </row>
     <row r="205">
@@ -3818,13 +3818,13 @@
         <v>2020</v>
       </c>
       <c r="C205" t="n">
-        <v>1223</v>
+        <v>265</v>
       </c>
       <c r="D205" t="n">
         <v>148</v>
       </c>
       <c r="E205" t="n">
-        <v>12.1013900245298</v>
+        <v>55.8490566037736</v>
       </c>
     </row>
     <row r="206">
@@ -3835,13 +3835,13 @@
         <v>2021</v>
       </c>
       <c r="C206" t="n">
-        <v>1832</v>
+        <v>166</v>
       </c>
       <c r="D206" t="n">
         <v>119</v>
       </c>
       <c r="E206" t="n">
-        <v>6.49563318777293</v>
+        <v>71.6867469879518</v>
       </c>
     </row>
     <row r="207">
@@ -3852,13 +3852,13 @@
         <v>2022</v>
       </c>
       <c r="C207" t="n">
-        <v>1550</v>
+        <v>200</v>
       </c>
       <c r="D207" t="n">
         <v>169</v>
       </c>
       <c r="E207" t="n">
-        <v>10.9032258064516</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="208">
@@ -3869,13 +3869,13 @@
         <v>2023</v>
       </c>
       <c r="C208" t="n">
-        <v>1509</v>
+        <v>271</v>
       </c>
       <c r="D208" t="n">
         <v>235</v>
       </c>
       <c r="E208" t="n">
-        <v>15.5732273028496</v>
+        <v>86.7158671586716</v>
       </c>
     </row>
     <row r="209">
@@ -3886,13 +3886,13 @@
         <v>2015</v>
       </c>
       <c r="C209" t="n">
-        <v>5043</v>
+        <v>2383</v>
       </c>
       <c r="D209" t="n">
         <v>710</v>
       </c>
       <c r="E209" t="n">
-        <v>14.0789212770176</v>
+        <v>29.7943768359211</v>
       </c>
     </row>
     <row r="210">
@@ -3903,13 +3903,13 @@
         <v>2016</v>
       </c>
       <c r="C210" t="n">
-        <v>6573</v>
+        <v>1519</v>
       </c>
       <c r="D210" t="n">
         <v>651</v>
       </c>
       <c r="E210" t="n">
-        <v>9.90415335463259</v>
+        <v>42.8571428571429</v>
       </c>
     </row>
     <row r="211">
@@ -3920,13 +3920,13 @@
         <v>2017</v>
       </c>
       <c r="C211" t="n">
-        <v>6266</v>
+        <v>2207</v>
       </c>
       <c r="D211" t="n">
         <v>597</v>
       </c>
       <c r="E211" t="n">
-        <v>9.52760932014044</v>
+        <v>27.0502945174445</v>
       </c>
     </row>
     <row r="212">
@@ -3937,13 +3937,13 @@
         <v>2018</v>
       </c>
       <c r="C212" t="n">
-        <v>6268</v>
+        <v>2847</v>
       </c>
       <c r="D212" t="n">
         <v>940</v>
       </c>
       <c r="E212" t="n">
-        <v>14.9968091895341</v>
+        <v>33.0172110994029</v>
       </c>
     </row>
     <row r="213">
@@ -3954,13 +3954,13 @@
         <v>2019</v>
       </c>
       <c r="C213" t="n">
-        <v>4829</v>
+        <v>1802</v>
       </c>
       <c r="D213" t="n">
         <v>529</v>
       </c>
       <c r="E213" t="n">
-        <v>10.9546489956513</v>
+        <v>29.3562708102109</v>
       </c>
     </row>
     <row r="214">
@@ -3971,13 +3971,13 @@
         <v>2020</v>
       </c>
       <c r="C214" t="n">
-        <v>5157</v>
+        <v>1455</v>
       </c>
       <c r="D214" t="n">
         <v>498</v>
       </c>
       <c r="E214" t="n">
-        <v>9.65677719604421</v>
+        <v>34.2268041237113</v>
       </c>
     </row>
     <row r="215">
@@ -3988,13 +3988,13 @@
         <v>2021</v>
       </c>
       <c r="C215" t="n">
-        <v>7103</v>
+        <v>1404</v>
       </c>
       <c r="D215" t="n">
         <v>378</v>
       </c>
       <c r="E215" t="n">
-        <v>5.32169505842602</v>
+        <v>26.9230769230769</v>
       </c>
     </row>
     <row r="216">
@@ -4005,13 +4005,13 @@
         <v>2022</v>
       </c>
       <c r="C216" t="n">
-        <v>7162</v>
+        <v>1235</v>
       </c>
       <c r="D216" t="n">
         <v>401</v>
       </c>
       <c r="E216" t="n">
-        <v>5.59899469421949</v>
+        <v>32.4696356275304</v>
       </c>
     </row>
     <row r="217">
@@ -4022,13 +4022,13 @@
         <v>2023</v>
       </c>
       <c r="C217" t="n">
-        <v>6829</v>
+        <v>1164</v>
       </c>
       <c r="D217" t="n">
         <v>358</v>
       </c>
       <c r="E217" t="n">
-        <v>5.24234880656026</v>
+        <v>30.7560137457045</v>
       </c>
     </row>
     <row r="218">
@@ -4039,13 +4039,13 @@
         <v>2015</v>
       </c>
       <c r="C218" t="n">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="D218" t="n">
         <v>32</v>
       </c>
       <c r="E218" t="n">
-        <v>26.0162601626016</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219">
@@ -4056,13 +4056,13 @@
         <v>2016</v>
       </c>
       <c r="C219" t="n">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D219" t="n">
         <v>29</v>
       </c>
       <c r="E219" t="n">
-        <v>20.863309352518</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220">
@@ -4073,13 +4073,13 @@
         <v>2017</v>
       </c>
       <c r="C220" t="n">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="D220" t="n">
         <v>20</v>
       </c>
       <c r="E220" t="n">
-        <v>10.3092783505155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221">
@@ -4090,13 +4090,13 @@
         <v>2018</v>
       </c>
       <c r="C221" t="n">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="D221" t="n">
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>3.88888888888889</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222">
@@ -4107,13 +4107,13 @@
         <v>2019</v>
       </c>
       <c r="C222" t="n">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D222" t="n">
         <v>12</v>
       </c>
       <c r="E222" t="n">
-        <v>10.4347826086957</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223">
@@ -4124,13 +4124,13 @@
         <v>2020</v>
       </c>
       <c r="C223" t="n">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D223" t="n">
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>3.46534653465347</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224">
@@ -4141,13 +4141,13 @@
         <v>2021</v>
       </c>
       <c r="C224" t="n">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="D224" t="n">
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>1.68674698795181</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225">
@@ -4158,43 +4158,47 @@
         <v>2022</v>
       </c>
       <c r="C225" t="n">
-        <v>381</v>
+        <v>7</v>
       </c>
       <c r="D225" t="n">
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>1.83727034120735</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B226" t="n">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C226" t="n">
-        <v>361</v>
-      </c>
-      <c r="D226"/>
-      <c r="E226"/>
+        <v>147</v>
+      </c>
+      <c r="D226" t="n">
+        <v>57</v>
+      </c>
+      <c r="E226" t="n">
+        <v>38.7755102040816</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
         <v>85</v>
       </c>
       <c r="B227" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C227" t="n">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="D227" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E227" t="n">
-        <v>13.7349397590361</v>
+        <v>42.156862745098</v>
       </c>
     </row>
     <row r="228">
@@ -4202,16 +4206,16 @@
         <v>85</v>
       </c>
       <c r="B228" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C228" t="n">
-        <v>499</v>
+        <v>104</v>
       </c>
       <c r="D228" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E228" t="n">
-        <v>8.61723446893788</v>
+        <v>26.9230769230769</v>
       </c>
     </row>
     <row r="229">
@@ -4219,46 +4223,46 @@
         <v>85</v>
       </c>
       <c r="B229" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C229" t="n">
-        <v>470</v>
-      </c>
-      <c r="D229" t="n">
-        <v>28</v>
-      </c>
-      <c r="E229" t="n">
-        <v>5.95744680851064</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
         <v>85</v>
       </c>
       <c r="B230" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C230" t="n">
-        <v>315</v>
-      </c>
-      <c r="D230"/>
-      <c r="E230"/>
+        <v>97</v>
+      </c>
+      <c r="D230" t="n">
+        <v>20</v>
+      </c>
+      <c r="E230" t="n">
+        <v>20.6185567010309</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
         <v>85</v>
       </c>
       <c r="B231" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C231" t="n">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="D231" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E231" t="n">
-        <v>8.26446280991736</v>
+        <v>18.1102362204724</v>
       </c>
     </row>
     <row r="232">
@@ -4266,16 +4270,16 @@
         <v>85</v>
       </c>
       <c r="B232" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C232" t="n">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="D232" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E232" t="n">
-        <v>7.37179487179487</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233">
@@ -4283,16 +4287,16 @@
         <v>85</v>
       </c>
       <c r="B233" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C233" t="n">
-        <v>530</v>
+        <v>56</v>
       </c>
       <c r="D233" t="n">
         <v>14</v>
       </c>
       <c r="E233" t="n">
-        <v>2.64150943396226</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234">
@@ -4300,33 +4304,33 @@
         <v>85</v>
       </c>
       <c r="B234" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C234" t="n">
-        <v>497</v>
+        <v>48</v>
       </c>
       <c r="D234" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E234" t="n">
-        <v>2.8169014084507</v>
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B235" t="n">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C235" t="n">
-        <v>479</v>
+        <v>31</v>
       </c>
       <c r="D235" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E235" t="n">
-        <v>2.08768267223382</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236">
@@ -4334,16 +4338,16 @@
         <v>86</v>
       </c>
       <c r="B236" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C236" t="n">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="D236" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E236" t="n">
-        <v>10.2649006622517</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
@@ -4351,16 +4355,16 @@
         <v>86</v>
       </c>
       <c r="B237" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C237" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="D237" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E237" t="n">
-        <v>21.4492753623188</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
@@ -4368,16 +4372,16 @@
         <v>86</v>
       </c>
       <c r="B238" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C238" t="n">
-        <v>374</v>
+        <v>8</v>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E238" t="n">
-        <v>4.01069518716578</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239">
@@ -4385,16 +4389,16 @@
         <v>86</v>
       </c>
       <c r="B239" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C239" t="n">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="D239" t="n">
         <v>8</v>
       </c>
       <c r="E239" t="n">
-        <v>2.37388724035608</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
@@ -4402,16 +4406,16 @@
         <v>86</v>
       </c>
       <c r="B240" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C240" t="n">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E240" t="n">
-        <v>1.54440154440154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241">
@@ -4419,59 +4423,67 @@
         <v>86</v>
       </c>
       <c r="B241" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C241" t="n">
-        <v>435</v>
-      </c>
-      <c r="D241"/>
-      <c r="E241"/>
+        <v>23</v>
+      </c>
+      <c r="D241" t="n">
+        <v>23</v>
+      </c>
+      <c r="E241" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B242" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C242" t="n">
-        <v>508</v>
-      </c>
-      <c r="D242"/>
-      <c r="E242"/>
+        <v>75</v>
+      </c>
+      <c r="D242" t="n">
+        <v>52</v>
+      </c>
+      <c r="E242" t="n">
+        <v>69.3333333333333</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B243" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C243" t="n">
-        <v>480</v>
+        <v>40</v>
       </c>
       <c r="D243" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E243" t="n">
-        <v>3.125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B244" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C244" t="n">
-        <v>454</v>
+        <v>41</v>
       </c>
       <c r="D244" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" t="n">
-        <v>5.06607929515418</v>
+        <v>53.6585365853659</v>
       </c>
     </row>
     <row r="245">
@@ -4479,16 +4491,16 @@
         <v>88</v>
       </c>
       <c r="B245" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C245" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D245" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E245" t="n">
-        <v>325</v>
+        <v>48.2758620689655</v>
       </c>
     </row>
     <row r="246">
@@ -4496,16 +4508,16 @@
         <v>88</v>
       </c>
       <c r="B246" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C246" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D246" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E246" t="n">
-        <v>106.25</v>
+        <v>37.037037037037</v>
       </c>
     </row>
     <row r="247">
@@ -4513,16 +4525,16 @@
         <v>88</v>
       </c>
       <c r="B247" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C247" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D247" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E247" t="n">
-        <v>50</v>
+        <v>9.80392156862745</v>
       </c>
     </row>
     <row r="248">
@@ -4530,16 +4542,16 @@
         <v>88</v>
       </c>
       <c r="B248" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C248" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D248" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
-        <v>60.8695652173913</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="249">
@@ -4547,16 +4559,16 @@
         <v>88</v>
       </c>
       <c r="B249" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C249" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D249" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>55.5555555555556</v>
+        <v>17.6470588235294</v>
       </c>
     </row>
     <row r="250">
@@ -4564,67 +4576,67 @@
         <v>88</v>
       </c>
       <c r="B250" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C250" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D250" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E250" t="n">
-        <v>27.7777777777778</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B251" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C251" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E251" t="n">
-        <v>2.27272727272727</v>
+        <v>23.2558139534884</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B252" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C252" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E252" t="n">
-        <v>3.94736842105263</v>
+        <v>45.8333333333333</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B253" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C253" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E253" t="n">
-        <v>2.56410256410256</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="254">
@@ -4632,16 +4644,16 @@
         <v>91</v>
       </c>
       <c r="B254" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C254" t="n">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="D254" t="n">
         <v>10</v>
       </c>
       <c r="E254" t="n">
-        <v>5.4054054054054</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="255">
@@ -4649,16 +4661,16 @@
         <v>91</v>
       </c>
       <c r="B255" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C255" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D255" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E255" t="n">
-        <v>6.875</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256">
@@ -4666,16 +4678,16 @@
         <v>91</v>
       </c>
       <c r="B256" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C256" t="n">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="D256" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E256" t="n">
-        <v>3.33333333333333</v>
+        <v>10.1694915254237</v>
       </c>
     </row>
     <row r="257">
@@ -4683,16 +4695,16 @@
         <v>91</v>
       </c>
       <c r="B257" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C257" t="n">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E257" t="n">
-        <v>5.3475935828877</v>
+        <v>41.025641025641</v>
       </c>
     </row>
     <row r="258">
@@ -4700,16 +4712,16 @@
         <v>91</v>
       </c>
       <c r="B258" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C258" t="n">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E258" t="n">
-        <v>6.97674418604651</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -4717,67 +4729,67 @@
         <v>91</v>
       </c>
       <c r="B259" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C259" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E259" t="n">
-        <v>6.12244897959184</v>
+        <v>57.1428571428571</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B260" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C260" t="n">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>7.72946859903382</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B261" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C261" t="n">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D261" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
-        <v>17.3076923076923</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B262" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C262" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>28</v>
-      </c>
-      <c r="E262" t="n">
-        <v>15.1351351351351</v>
+        <v>0</v>
+      </c>
+      <c r="E262" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="263">
@@ -4785,16 +4797,16 @@
         <v>94</v>
       </c>
       <c r="B263" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C263" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
-        <v>1.88679245283019</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264">
@@ -4802,499 +4814,136 @@
         <v>94</v>
       </c>
       <c r="B264" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C264" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2.22222222222222</v>
+        <v>0</v>
+      </c>
+      <c r="E264" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B265" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C265" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>86.6666666666667</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B266" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C266" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E266" t="n">
-        <v>2.94117647058824</v>
+        <v>85.7142857142857</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B267" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C267" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>77.7777777777778</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B268" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C268" t="n">
-        <v>61</v>
-      </c>
-      <c r="D268"/>
-      <c r="E268"/>
+        <v>10</v>
+      </c>
+      <c r="D268" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B269" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C269" t="n">
-        <v>79</v>
-      </c>
-      <c r="D269"/>
-      <c r="E269"/>
+        <v>8</v>
+      </c>
+      <c r="D269" t="n">
+        <v>6</v>
+      </c>
+      <c r="E269" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B270" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C270" t="n">
-        <v>90</v>
-      </c>
-      <c r="D270"/>
-      <c r="E270"/>
+        <v>49</v>
+      </c>
+      <c r="D270" t="n">
+        <v>7</v>
+      </c>
+      <c r="E270" t="n">
+        <v>14.2857142857143</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B271" t="n">
         <v>2023</v>
       </c>
       <c r="C271" t="n">
-        <v>86</v>
-      </c>
-      <c r="D271"/>
-      <c r="E271"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>95</v>
-      </c>
-      <c r="B272" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C272" t="n">
-        <v>118</v>
-      </c>
-      <c r="D272" t="n">
-        <v>26</v>
-      </c>
-      <c r="E272" t="n">
-        <v>22.0338983050847</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>95</v>
-      </c>
-      <c r="B273" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C273" t="n">
-        <v>92</v>
-      </c>
-      <c r="D273" t="n">
-        <v>6</v>
-      </c>
-      <c r="E273" t="n">
-        <v>6.52173913043478</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>95</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C274" t="n">
-        <v>139</v>
-      </c>
-      <c r="D274" t="n">
-        <v>7</v>
-      </c>
-      <c r="E274" t="n">
-        <v>5.03597122302158</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>95</v>
-      </c>
-      <c r="B275" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C275" t="n">
-        <v>132</v>
-      </c>
-      <c r="D275" t="n">
+        <v>10</v>
+      </c>
+      <c r="D271" t="n">
         <v>8</v>
       </c>
-      <c r="E275" t="n">
-        <v>6.06060606060606</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>95</v>
-      </c>
-      <c r="B276" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C276" t="n">
-        <v>185</v>
-      </c>
-      <c r="D276" t="n">
-        <v>6</v>
-      </c>
-      <c r="E276" t="n">
-        <v>3.24324324324324</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>95</v>
-      </c>
-      <c r="B277" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C277" t="n">
-        <v>121</v>
-      </c>
-      <c r="D277" t="n">
-        <v>7</v>
-      </c>
-      <c r="E277" t="n">
-        <v>5.78512396694215</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>95</v>
-      </c>
-      <c r="B278" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C278" t="n">
-        <v>126</v>
-      </c>
-      <c r="D278"/>
-      <c r="E278"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>95</v>
-      </c>
-      <c r="B279" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C279" t="n">
-        <v>138</v>
-      </c>
-      <c r="D279"/>
-      <c r="E279"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>95</v>
-      </c>
-      <c r="B280" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C280" t="n">
-        <v>185</v>
-      </c>
-      <c r="D280" t="n">
-        <v>8</v>
-      </c>
-      <c r="E280" t="n">
-        <v>4.32432432432432</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>97</v>
-      </c>
-      <c r="B281" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C281" t="n">
-        <v>10</v>
-      </c>
-      <c r="D281"/>
-      <c r="E281"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>97</v>
-      </c>
-      <c r="B282" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C282" t="n">
-        <v>33</v>
-      </c>
-      <c r="D282"/>
-      <c r="E282"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>97</v>
-      </c>
-      <c r="B283" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C283" t="n">
-        <v>9</v>
-      </c>
-      <c r="D283"/>
-      <c r="E283"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>97</v>
-      </c>
-      <c r="B284" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C284" t="n">
-        <v>42</v>
-      </c>
-      <c r="D284"/>
-      <c r="E284"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>97</v>
-      </c>
-      <c r="B285" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C285" t="n">
-        <v>48</v>
-      </c>
-      <c r="D285"/>
-      <c r="E285"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>97</v>
-      </c>
-      <c r="B286" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C286" t="n">
-        <v>39</v>
-      </c>
-      <c r="D286"/>
-      <c r="E286"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>97</v>
-      </c>
-      <c r="B287" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C287" t="n">
-        <v>64</v>
-      </c>
-      <c r="D287"/>
-      <c r="E287"/>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>97</v>
-      </c>
-      <c r="B288" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C288" t="n">
-        <v>67</v>
-      </c>
-      <c r="D288"/>
-      <c r="E288"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>97</v>
-      </c>
-      <c r="B289" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C289" t="n">
-        <v>69</v>
-      </c>
-      <c r="D289"/>
-      <c r="E289"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>99</v>
-      </c>
-      <c r="B290" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C290" t="n">
-        <v>86</v>
-      </c>
-      <c r="D290"/>
-      <c r="E290"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>99</v>
-      </c>
-      <c r="B291" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C291" t="n">
-        <v>109</v>
-      </c>
-      <c r="D291"/>
-      <c r="E291"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>99</v>
-      </c>
-      <c r="B292" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C292" t="n">
-        <v>107</v>
-      </c>
-      <c r="D292"/>
-      <c r="E292"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>99</v>
-      </c>
-      <c r="B293" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C293" t="n">
-        <v>54</v>
-      </c>
-      <c r="D293"/>
-      <c r="E293"/>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>99</v>
-      </c>
-      <c r="B294" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C294" t="n">
-        <v>68</v>
-      </c>
-      <c r="D294"/>
-      <c r="E294"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>99</v>
-      </c>
-      <c r="B295" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C295" t="n">
-        <v>76</v>
-      </c>
-      <c r="D295"/>
-      <c r="E295"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>99</v>
-      </c>
-      <c r="B296" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C296" t="n">
-        <v>99</v>
-      </c>
-      <c r="D296"/>
-      <c r="E296"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>99</v>
-      </c>
-      <c r="B297" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C297" t="n">
-        <v>158</v>
-      </c>
-      <c r="D297"/>
-      <c r="E297"/>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>99</v>
-      </c>
-      <c r="B298" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C298" t="n">
-        <v>144</v>
-      </c>
-      <c r="D298"/>
-      <c r="E298"/>
+      <c r="E271" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_Process/YA_9.1.xlsx
+++ b/03_Process/YA_9.1.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">codmpio</t>
+    <t xml:space="preserve">coddepto</t>
   </si>
   <si>
     <t xml:space="preserve">anno</t>
